--- a/excel files/cleaned.xlsx
+++ b/excel files/cleaned.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X139"/>
+  <dimension ref="A1:X143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10709,6 +10709,302 @@
       </c>
       <c r="X139" t="n">
         <v>36302.86727882688</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>44579</v>
+      </c>
+      <c r="B140" t="n">
+        <v>526</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2906</v>
+      </c>
+      <c r="D140" t="n">
+        <v>788349</v>
+      </c>
+      <c r="E140" t="n">
+        <v>3891821</v>
+      </c>
+      <c r="F140" t="n">
+        <v>35368.47</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-2380</v>
+      </c>
+      <c r="H140" t="n">
+        <v>-215.6919113831161</v>
+      </c>
+      <c r="I140" t="n">
+        <v>-96.83737171238673</v>
+      </c>
+      <c r="J140" t="n">
+        <v>-118.8545396707294</v>
+      </c>
+      <c r="K140" t="n">
+        <v>1101.305078258136</v>
+      </c>
+      <c r="L140" t="n">
+        <v>-334.5464510538455</v>
+      </c>
+      <c r="M140" t="n">
+        <v>2042.544342360743</v>
+      </c>
+      <c r="N140" t="n">
+        <v>-3103472</v>
+      </c>
+      <c r="O140" t="n">
+        <v>-43249.70675272169</v>
+      </c>
+      <c r="P140" t="n">
+        <v>-19527.63849619965</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>-23722.06825652203</v>
+      </c>
+      <c r="R140" t="n">
+        <v>18231.22934669518</v>
+      </c>
+      <c r="S140" t="n">
+        <v>-66971.77500924372</v>
+      </c>
+      <c r="T140" t="n">
+        <v>407469.5901211969</v>
+      </c>
+      <c r="U140" t="n">
+        <v>36038.72987775276</v>
+      </c>
+      <c r="V140" t="n">
+        <v>35895.78566037029</v>
+      </c>
+      <c r="W140" t="n">
+        <v>142.9442173824718</v>
+      </c>
+      <c r="X140" t="n">
+        <v>36181.67409513523</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>44580</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1063</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2316</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1375035</v>
+      </c>
+      <c r="E141" t="n">
+        <v>3069343</v>
+      </c>
+      <c r="F141" t="n">
+        <v>35028.65</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-1253</v>
+      </c>
+      <c r="H141" t="n">
+        <v>-319.4227202448045</v>
+      </c>
+      <c r="I141" t="n">
+        <v>-154.6455031267674</v>
+      </c>
+      <c r="J141" t="n">
+        <v>-164.7772171180371</v>
+      </c>
+      <c r="K141" t="n">
+        <v>936.5278611400992</v>
+      </c>
+      <c r="L141" t="n">
+        <v>-484.1999373628416</v>
+      </c>
+      <c r="M141" t="n">
+        <v>2811.344404997901</v>
+      </c>
+      <c r="N141" t="n">
+        <v>-1694308</v>
+      </c>
+      <c r="O141" t="n">
+        <v>-208355.5360774495</v>
+      </c>
+      <c r="P141" t="n">
+        <v>-103266.6565713897</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>-105088.8795060599</v>
+      </c>
+      <c r="R141" t="n">
+        <v>-86857.65015936468</v>
+      </c>
+      <c r="S141" t="n">
+        <v>-313444.4155835094</v>
+      </c>
+      <c r="T141" t="n">
+        <v>1788333.174537688</v>
+      </c>
+      <c r="U141" t="n">
+        <v>35937.72188997749</v>
+      </c>
+      <c r="V141" t="n">
+        <v>35852.42887735178</v>
+      </c>
+      <c r="W141" t="n">
+        <v>85.29301262571244</v>
+      </c>
+      <c r="X141" t="n">
+        <v>36023.0149026032</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>44581</v>
+      </c>
+      <c r="B142" t="n">
+        <v>853</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2503</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1019310</v>
+      </c>
+      <c r="E142" t="n">
+        <v>3482133</v>
+      </c>
+      <c r="F142" t="n">
+        <v>34715.39</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-1650</v>
+      </c>
+      <c r="H142" t="n">
+        <v>-452.4804482203241</v>
+      </c>
+      <c r="I142" t="n">
+        <v>-229.413227970429</v>
+      </c>
+      <c r="J142" t="n">
+        <v>-223.0672202498951</v>
+      </c>
+      <c r="K142" t="n">
+        <v>713.4606408902041</v>
+      </c>
+      <c r="L142" t="n">
+        <v>-675.5476684702192</v>
+      </c>
+      <c r="M142" t="n">
+        <v>3785.796736527683</v>
+      </c>
+      <c r="N142" t="n">
+        <v>-2462823</v>
+      </c>
+      <c r="O142" t="n">
+        <v>-433802.2824697046</v>
+      </c>
+      <c r="P142" t="n">
+        <v>-221244.4737428202</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>-212557.8087268844</v>
+      </c>
+      <c r="R142" t="n">
+        <v>-299415.4588862491</v>
+      </c>
+      <c r="S142" t="n">
+        <v>-646360.0911965891</v>
+      </c>
+      <c r="T142" t="n">
+        <v>3604796.083341099</v>
+      </c>
+      <c r="U142" t="n">
+        <v>35815.48870097974</v>
+      </c>
+      <c r="V142" t="n">
+        <v>35795.57693348419</v>
+      </c>
+      <c r="W142" t="n">
+        <v>19.9117674955487</v>
+      </c>
+      <c r="X142" t="n">
+        <v>35835.40046847529</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>44582</v>
+      </c>
+      <c r="B143" t="n">
+        <v>680</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2757</v>
+      </c>
+      <c r="D143" t="n">
+        <v>614754</v>
+      </c>
+      <c r="E143" t="n">
+        <v>4860462</v>
+      </c>
+      <c r="F143" t="n">
+        <v>34265.37</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-2077</v>
+      </c>
+      <c r="H143" t="n">
+        <v>-614.9324033982917</v>
+      </c>
+      <c r="I143" t="n">
+        <v>-321.7925665719076</v>
+      </c>
+      <c r="J143" t="n">
+        <v>-293.1398368263842</v>
+      </c>
+      <c r="K143" t="n">
+        <v>420.3208040638199</v>
+      </c>
+      <c r="L143" t="n">
+        <v>-908.0722402246759</v>
+      </c>
+      <c r="M143" t="n">
+        <v>4954.724496303008</v>
+      </c>
+      <c r="N143" t="n">
+        <v>-4245708</v>
+      </c>
+      <c r="O143" t="n">
+        <v>-814992.8542227342</v>
+      </c>
+      <c r="P143" t="n">
+        <v>-422467.6500556792</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>-392525.204167055</v>
+      </c>
+      <c r="R143" t="n">
+        <v>-691940.6630533042</v>
+      </c>
+      <c r="S143" t="n">
+        <v>-1207518.058389789</v>
+      </c>
+      <c r="T143" t="n">
+        <v>6642986.024951312</v>
+      </c>
+      <c r="U143" t="n">
+        <v>35660.47683088177</v>
+      </c>
+      <c r="V143" t="n">
+        <v>35719.06658680997</v>
+      </c>
+      <c r="W143" t="n">
+        <v>-58.58975592820934</v>
+      </c>
+      <c r="X143" t="n">
+        <v>35601.88707495356</v>
       </c>
     </row>
   </sheetData>
